--- a/biology/Zoologie/Aades/Aades.xlsx
+++ b/biology/Zoologie/Aades/Aades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aades est un genre de coléoptères de la famille des Curculionidae, communément appelés « charançons ». Ces insectes se trouvent dans diverses parties du monde, notamment en Amérique du Nord et du Sud, en Asie et en Europe. Ils sont généralement de petite taille, la plupart des espèces mesurant entre 2 et 7 mm de longueur.
 Les Aades sont connus pour leur rostre allongé, qu'ils utilisent pour percer les plantes et se nourrir des tissus intérieur, causant ainsi des dommages importants aux cultures, ce qui en fait un ravageur majeur en milieu agricole. Certaines espèces d’Aades sont également connues pour se nourrir de fleurs et de fruits, causant d'autres dommages aux plantes. Le genre Aades contient quatre espèces décrites, dont certains sont des ravageurs agricoles.
@@ -513,7 +525,9 @@
           <t>Statut du ravageur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aades sont des ravageurs majeurs en milieu agricole, où ils peuvent causer des dommages importants aux cultures ce qui a pour conséquence une baisse des rendements et des pertes économiques pour les agriculteurs. Certains sont également connus pour se nourrir de fleurs et de fruits[réf. souhaitée].
 </t>
@@ -544,7 +558,9 @@
           <t>Contrôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le contrôle des Aades est difficile, car leur taux de reproduction est élevé et peuvent rapidement s'établir dans une zone. Les insecticides peuvent être efficaces pour contrôler Aades, mais ils peuvent également être nocifs pour d'autres insectes bénéfiques et nuisent à l'environnement. Des méthodes de contrôle alternatives, telles que l'élimination physique des plantes infestées ou l'utilisation de pièges, peuvent également être efficaces pour gérer leurs populations.
 </t>
@@ -575,7 +591,9 @@
           <t>Importance écologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus de leur importance économique en tant que ravageurs, les Aades sont également des indicateurs importants de la santé des écosystèmes. De nombreuses espèces d’Aades sont des mangeurs spécialisés, ce qui signifie qu'elles dépendent d'un type spécifique de plante pour se nourrir. En conséquence, les changements dans l'abondance ou la distribution de ces plantes peuvent avoir des effets en cascade sur les populations d’Aades. En tant que tels, ils sont souvent utilisés comme bioindicateurs pour surveiller la santé des écosystèmes et les impacts des activités humaines sur l'environnement.
 </t>
@@ -606,13 +624,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il existe actuellement quatre espèces dans ce genre :
-Aades bicristatus (Schoenherr, 1823)[1]'[2]
-Aades bifoveifrons (Lea, 1916)[3]; une sous-espèce d' Aades bifoveifrons est Aades foveipennis bifoveifrons ou Aades foveipennis var. bifovéifrons[4],[5]
-Aades cultratus (Schoenherr, 1823)[6]'[7]
-Aades franklini (Heller, KM, 1925); qui est également connu sous un genre différent, Aterpus, comme Aterpus franklini[8]'[9]</t>
+Aades bicristatus (Schoenherr, 1823)'
+Aades bifoveifrons (Lea, 1916); une sous-espèce d' Aades bifoveifrons est Aades foveipennis bifoveifrons ou Aades foveipennis var. bifovéifrons,
+Aades cultratus (Schoenherr, 1823)'
+Aades franklini (Heller, KM, 1925); qui est également connu sous un genre différent, Aterpus, comme Aterpus franklini'</t>
         </is>
       </c>
     </row>
@@ -640,9 +660,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aades Schoenherr, 1823[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aades Schoenherr, 1823.
 </t>
         </is>
       </c>
